--- a/Code/Results/Cases/Case_1_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_241/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9406701231914573</v>
+        <v>1.033366029227542</v>
       </c>
       <c r="D2">
-        <v>1.023091368372433</v>
+        <v>1.025507051647275</v>
       </c>
       <c r="E2">
-        <v>0.9587835942880245</v>
+        <v>1.041296853725589</v>
       </c>
       <c r="F2">
-        <v>0.958790677652307</v>
+        <v>1.049333393264743</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04823588693434</v>
+        <v>1.02804731065926</v>
       </c>
       <c r="J2">
-        <v>0.9647827423474221</v>
+        <v>1.038491151223592</v>
       </c>
       <c r="K2">
-        <v>1.034238110779699</v>
+        <v>1.028332420894444</v>
       </c>
       <c r="L2">
-        <v>0.9708486554631142</v>
+        <v>1.044076768678686</v>
       </c>
       <c r="M2">
-        <v>0.9708556290141843</v>
+        <v>1.052090743175996</v>
       </c>
       <c r="N2">
-        <v>0.9894316961923437</v>
+        <v>1.016359438818662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9524186050830669</v>
+        <v>1.035456500123056</v>
       </c>
       <c r="D3">
-        <v>1.026656736711927</v>
+        <v>1.026019325364455</v>
       </c>
       <c r="E3">
-        <v>0.9692419938083159</v>
+        <v>1.043210675826196</v>
       </c>
       <c r="F3">
-        <v>0.9702422685813338</v>
+        <v>1.051452051245787</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049552168686541</v>
+        <v>1.028114196249099</v>
       </c>
       <c r="J3">
-        <v>0.9742961429359164</v>
+        <v>1.040218527726439</v>
       </c>
       <c r="K3">
-        <v>1.036959532729952</v>
+        <v>1.028652813399939</v>
       </c>
       <c r="L3">
-        <v>0.9802841676473346</v>
+        <v>1.045798295184488</v>
       </c>
       <c r="M3">
-        <v>0.9812706174023301</v>
+        <v>1.054018255724803</v>
       </c>
       <c r="N3">
-        <v>0.9929555615789046</v>
+        <v>1.016972109842518</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9596667929265295</v>
+        <v>1.036804338530668</v>
       </c>
       <c r="D4">
-        <v>1.028866762049402</v>
+        <v>1.026344013162027</v>
       </c>
       <c r="E4">
-        <v>0.9757032499612419</v>
+        <v>1.044444645201334</v>
       </c>
       <c r="F4">
-        <v>0.9773197444983338</v>
+        <v>1.052818661432289</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050346101611163</v>
+        <v>1.028152502439901</v>
       </c>
       <c r="J4">
-        <v>0.9801616929219897</v>
+        <v>1.041331346126495</v>
       </c>
       <c r="K4">
-        <v>1.038628840114071</v>
+        <v>1.028852644648525</v>
       </c>
       <c r="L4">
-        <v>0.9861040388340179</v>
+        <v>1.046907440178718</v>
       </c>
       <c r="M4">
-        <v>0.9876998335070293</v>
+        <v>1.055260824523872</v>
       </c>
       <c r="N4">
-        <v>0.9951252939962186</v>
+        <v>1.017365833892181</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9626369232228098</v>
+        <v>1.037369841693726</v>
       </c>
       <c r="D5">
-        <v>1.029773185199953</v>
+        <v>1.026478881439717</v>
       </c>
       <c r="E5">
-        <v>0.9783528230347583</v>
+        <v>1.044962378131683</v>
       </c>
       <c r="F5">
-        <v>0.9802227022168312</v>
+        <v>1.053392182731227</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050666288111991</v>
+        <v>1.028167412619662</v>
       </c>
       <c r="J5">
-        <v>0.9825642106938938</v>
+        <v>1.041798024285772</v>
       </c>
       <c r="K5">
-        <v>1.039309142812778</v>
+        <v>1.028934856412294</v>
       </c>
       <c r="L5">
-        <v>0.9884883668270308</v>
+        <v>1.047372600427122</v>
       </c>
       <c r="M5">
-        <v>0.9903350710637385</v>
+        <v>1.055782111355798</v>
       </c>
       <c r="N5">
-        <v>0.9960131695381308</v>
+        <v>1.017530713907021</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9631313086352351</v>
+        <v>1.03746472686782</v>
       </c>
       <c r="D6">
-        <v>1.029924063371728</v>
+        <v>1.026501430639359</v>
       </c>
       <c r="E6">
-        <v>0.978793956658047</v>
+        <v>1.045049248248012</v>
       </c>
       <c r="F6">
-        <v>0.9807060647623946</v>
+        <v>1.053488421571141</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050719259225548</v>
+        <v>1.028169846008701</v>
       </c>
       <c r="J6">
-        <v>0.982964050311198</v>
+        <v>1.04187631483863</v>
       </c>
       <c r="K6">
-        <v>1.039422122093371</v>
+        <v>1.028948554567338</v>
       </c>
       <c r="L6">
-        <v>0.9888852087019288</v>
+        <v>1.047450637651736</v>
       </c>
       <c r="M6">
-        <v>0.9907737489818044</v>
+        <v>1.055869574615349</v>
       </c>
       <c r="N6">
-        <v>0.9961608810379829</v>
+        <v>1.01755836060787</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9597067731935055</v>
+        <v>1.036811899204402</v>
       </c>
       <c r="D7">
-        <v>1.028878962103938</v>
+        <v>1.026345821692126</v>
       </c>
       <c r="E7">
-        <v>0.9757389080036764</v>
+        <v>1.0444515671777</v>
       </c>
       <c r="F7">
-        <v>0.9773588097804041</v>
+        <v>1.052826328749198</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050350433012134</v>
+        <v>1.028152706365016</v>
       </c>
       <c r="J7">
-        <v>0.980194037003067</v>
+        <v>1.0413375863911</v>
       </c>
       <c r="K7">
-        <v>1.03863801414487</v>
+        <v>1.028853750235325</v>
       </c>
       <c r="L7">
-        <v>0.9861361360194602</v>
+        <v>1.046913660057774</v>
       </c>
       <c r="M7">
-        <v>0.9877353033046444</v>
+        <v>1.055267794227486</v>
       </c>
       <c r="N7">
-        <v>0.9951372506112881</v>
+        <v>1.017368039536576</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9447188716536044</v>
+        <v>1.034073532951003</v>
       </c>
       <c r="D8">
-        <v>1.024316734034519</v>
+        <v>1.02568157912909</v>
       </c>
       <c r="E8">
-        <v>0.9623856726026698</v>
+        <v>1.041944565930772</v>
       </c>
       <c r="F8">
-        <v>0.9627343128094416</v>
+        <v>1.050050311958026</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04869285524892</v>
+        <v>1.02807094286734</v>
       </c>
       <c r="J8">
-        <v>0.9680619314356612</v>
+        <v>1.039075957746021</v>
       </c>
       <c r="K8">
-        <v>1.03517709359159</v>
+        <v>1.028442245416833</v>
       </c>
       <c r="L8">
-        <v>0.9741004678994125</v>
+        <v>1.04465957474345</v>
       </c>
       <c r="M8">
-        <v>0.9744439069496231</v>
+        <v>1.052743136263629</v>
       </c>
       <c r="N8">
-        <v>0.990646877182158</v>
+        <v>1.016567061135038</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9151748993590451</v>
+        <v>1.029209801128964</v>
       </c>
       <c r="D9">
-        <v>1.015507248178863</v>
+        <v>1.024459342914767</v>
       </c>
       <c r="E9">
-        <v>0.9361545166681805</v>
+        <v>1.037492025308604</v>
       </c>
       <c r="F9">
-        <v>0.9340243381568711</v>
+        <v>1.045124365226372</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045316807020323</v>
+        <v>1.027888906352644</v>
       </c>
       <c r="J9">
-        <v>0.9441248047241557</v>
+        <v>1.035051958522594</v>
       </c>
       <c r="K9">
-        <v>1.028353643349235</v>
+        <v>1.027660033183786</v>
       </c>
       <c r="L9">
-        <v>0.9503759710565585</v>
+        <v>1.040649743577527</v>
       </c>
       <c r="M9">
-        <v>0.9482869259773931</v>
+        <v>1.048257462646569</v>
       </c>
       <c r="N9">
-        <v>0.9817702740422682</v>
+        <v>1.015134458890293</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8926104190860664</v>
+        <v>1.025939617291363</v>
       </c>
       <c r="D10">
-        <v>1.009074118800368</v>
+        <v>1.023610008354521</v>
       </c>
       <c r="E10">
-        <v>0.9162101577309053</v>
+        <v>1.034498556500015</v>
       </c>
       <c r="F10">
-        <v>0.9122014266075987</v>
+        <v>1.041815550827719</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042740418255061</v>
+        <v>1.027742192411911</v>
       </c>
       <c r="J10">
-        <v>0.9258434061875614</v>
+        <v>1.032341682945349</v>
       </c>
       <c r="K10">
-        <v>1.023281447481231</v>
+        <v>1.027100466945094</v>
       </c>
       <c r="L10">
-        <v>0.9322771519359967</v>
+        <v>1.037949528146233</v>
       </c>
       <c r="M10">
-        <v>0.9283601017877225</v>
+        <v>1.045240498997322</v>
       </c>
       <c r="N10">
-        <v>0.974992910916715</v>
+        <v>1.014164613834184</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8819158412008384</v>
+        <v>1.024516597594767</v>
       </c>
       <c r="D11">
-        <v>1.006144924351871</v>
+        <v>1.02323410637176</v>
       </c>
       <c r="E11">
-        <v>0.9067873154486277</v>
+        <v>1.033196024245224</v>
       </c>
       <c r="F11">
-        <v>0.9018904358710491</v>
+        <v>1.040376494231811</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041542536238143</v>
+        <v>1.027672681232815</v>
       </c>
       <c r="J11">
-        <v>0.9171842076014292</v>
+        <v>1.031161200832587</v>
       </c>
       <c r="K11">
-        <v>1.02095187941545</v>
+        <v>1.026849189472056</v>
       </c>
       <c r="L11">
-        <v>0.9237107128586058</v>
+        <v>1.036773553826061</v>
       </c>
       <c r="M11">
-        <v>0.9189344155542704</v>
+        <v>1.043927448861385</v>
       </c>
       <c r="N11">
-        <v>0.9717872094098993</v>
+        <v>1.013741033680938</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8777755549434745</v>
+        <v>1.023986934918851</v>
       </c>
       <c r="D12">
-        <v>1.005034294761868</v>
+        <v>1.023093261465912</v>
       </c>
       <c r="E12">
-        <v>0.9031448295958915</v>
+        <v>1.032711220915079</v>
       </c>
       <c r="F12">
-        <v>0.8979042947929057</v>
+        <v>1.039840979805725</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041084745136768</v>
+        <v>1.027645965106361</v>
       </c>
       <c r="J12">
-        <v>0.9138333077145443</v>
+        <v>1.030721647574989</v>
       </c>
       <c r="K12">
-        <v>1.020065677037083</v>
+        <v>1.026754508480939</v>
       </c>
       <c r="L12">
-        <v>0.9203968193082218</v>
+        <v>1.036335698255753</v>
       </c>
       <c r="M12">
-        <v>0.9152889499180735</v>
+        <v>1.043438686032643</v>
       </c>
       <c r="N12">
-        <v>0.9705477918726503</v>
+        <v>1.013583141053325</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8786718251183243</v>
+        <v>1.024100599274606</v>
       </c>
       <c r="D13">
-        <v>1.005273568579101</v>
+        <v>1.02312352824074</v>
       </c>
       <c r="E13">
-        <v>0.903933074213472</v>
+        <v>1.032815257965506</v>
       </c>
       <c r="F13">
-        <v>0.8987669269977022</v>
+        <v>1.039955894605354</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041183532369324</v>
+        <v>1.027651736342748</v>
       </c>
       <c r="J13">
-        <v>0.9145586201279342</v>
+        <v>1.030815982143403</v>
       </c>
       <c r="K13">
-        <v>1.020256731067005</v>
+        <v>1.02677487869296</v>
       </c>
       <c r="L13">
-        <v>0.9211140684616013</v>
+        <v>1.036429667602273</v>
       </c>
       <c r="M13">
-        <v>0.9160779278678318</v>
+        <v>1.043543574808476</v>
       </c>
       <c r="N13">
-        <v>0.9708160094506497</v>
+        <v>1.013617034894785</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8815772292666414</v>
+        <v>1.024472837959735</v>
       </c>
       <c r="D14">
-        <v>1.006053586573631</v>
+        <v>1.023222488916466</v>
       </c>
       <c r="E14">
-        <v>0.9064892995739268</v>
+        <v>1.033155970530062</v>
       </c>
       <c r="F14">
-        <v>0.9015643116167841</v>
+        <v>1.040332248738053</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041504960057254</v>
+        <v>1.027670491146611</v>
       </c>
       <c r="J14">
-        <v>0.9169101229006712</v>
+        <v>1.031124889223288</v>
       </c>
       <c r="K14">
-        <v>1.020879057303193</v>
+        <v>1.026841390534216</v>
       </c>
       <c r="L14">
-        <v>0.9234396315964323</v>
+        <v>1.036737382070019</v>
       </c>
       <c r="M14">
-        <v>0.9186361951214297</v>
+        <v>1.043887068933161</v>
       </c>
       <c r="N14">
-        <v>0.9716858068204445</v>
+        <v>1.013727993633358</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8833440775647818</v>
+        <v>1.024702040976964</v>
       </c>
       <c r="D15">
-        <v>1.00653115496801</v>
+        <v>1.023283300548361</v>
       </c>
       <c r="E15">
-        <v>0.9080445473252733</v>
+        <v>1.033365763308621</v>
       </c>
       <c r="F15">
-        <v>0.9032662328231853</v>
+        <v>1.040564001381583</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04170128505091</v>
+        <v>1.027681927861248</v>
       </c>
       <c r="J15">
-        <v>0.9183403344068528</v>
+        <v>1.031315074403884</v>
       </c>
       <c r="K15">
-        <v>1.021259696371353</v>
+        <v>1.026882192518696</v>
       </c>
       <c r="L15">
-        <v>0.9248542165661261</v>
+        <v>1.036926835544606</v>
       </c>
       <c r="M15">
-        <v>0.9201924332920114</v>
+        <v>1.044098568512557</v>
       </c>
       <c r="N15">
-        <v>0.9722149870016802</v>
+        <v>1.013796284965319</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8932984378344824</v>
+        <v>1.02603390762909</v>
       </c>
       <c r="D16">
-        <v>1.009265409203062</v>
+        <v>1.023634784689579</v>
       </c>
       <c r="E16">
-        <v>0.9168170417698949</v>
+        <v>1.034584864946816</v>
       </c>
       <c r="F16">
-        <v>0.9128654815013677</v>
+        <v>1.041910920141611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042818143987246</v>
+        <v>1.027746679784027</v>
       </c>
       <c r="J16">
-        <v>0.926400637187088</v>
+        <v>1.032419879352862</v>
       </c>
       <c r="K16">
-        <v>1.023433172621418</v>
+        <v>1.02711695452225</v>
       </c>
       <c r="L16">
-        <v>0.9328285538583383</v>
+        <v>1.038027428624988</v>
       </c>
       <c r="M16">
-        <v>0.9289669270623233</v>
+        <v>1.04532749814416</v>
       </c>
       <c r="N16">
-        <v>0.9751993268199133</v>
+        <v>1.014192648055195</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8992773124888894</v>
+        <v>1.02686745018941</v>
       </c>
       <c r="D17">
-        <v>1.01094139622666</v>
+        <v>1.023853086440131</v>
       </c>
       <c r="E17">
-        <v>0.9220942304035654</v>
+        <v>1.035347855050772</v>
       </c>
       <c r="F17">
-        <v>0.9186397130791982</v>
+        <v>1.042754090270336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043496363820946</v>
+        <v>1.027785696793537</v>
       </c>
       <c r="J17">
-        <v>0.931243612712083</v>
+        <v>1.03311102144153</v>
       </c>
       <c r="K17">
-        <v>1.024760264815615</v>
+        <v>1.027261812832631</v>
       </c>
       <c r="L17">
-        <v>0.9376215732635738</v>
+        <v>1.038715969682559</v>
       </c>
       <c r="M17">
-        <v>0.9342423605235717</v>
+        <v>1.046096560209594</v>
       </c>
       <c r="N17">
-        <v>0.9769938506536489</v>
+        <v>1.014440296640642</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9026778829155593</v>
+        <v>1.027352967761147</v>
       </c>
       <c r="D18">
-        <v>1.01190518914984</v>
+        <v>1.02397963304905</v>
       </c>
       <c r="E18">
-        <v>0.9250983657589541</v>
+        <v>1.035792284708298</v>
       </c>
       <c r="F18">
-        <v>0.9219267607558133</v>
+        <v>1.043245289960371</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043884053311239</v>
+        <v>1.027807877329898</v>
       </c>
       <c r="J18">
-        <v>0.9339985713914327</v>
+        <v>1.033513487843186</v>
       </c>
       <c r="K18">
-        <v>1.025521539750437</v>
+        <v>1.027345439387843</v>
       </c>
       <c r="L18">
-        <v>0.9403486750473912</v>
+        <v>1.039116933547572</v>
       </c>
       <c r="M18">
-        <v>0.9372444943333254</v>
+        <v>1.046544498368184</v>
       </c>
       <c r="N18">
-        <v>0.9780150546377691</v>
+        <v>1.014584396272636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9038234088435798</v>
+        <v>1.027518403541067</v>
       </c>
       <c r="D19">
-        <v>1.012231509405157</v>
+        <v>1.024022648879112</v>
       </c>
       <c r="E19">
-        <v>0.926110774697618</v>
+        <v>1.035943721312831</v>
       </c>
       <c r="F19">
-        <v>0.9230345120150591</v>
+        <v>1.043412674438442</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044014918495122</v>
+        <v>1.027815342305293</v>
       </c>
       <c r="J19">
-        <v>0.9349266757720883</v>
+        <v>1.033650606598615</v>
       </c>
       <c r="K19">
-        <v>1.025778969664447</v>
+        <v>1.027373806722036</v>
       </c>
       <c r="L19">
-        <v>0.9412674859090916</v>
+        <v>1.039253542438254</v>
       </c>
       <c r="M19">
-        <v>0.9382560638659401</v>
+        <v>1.04669712568265</v>
       </c>
       <c r="N19">
-        <v>0.9783591359048145</v>
+        <v>1.014633471543508</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8986449962393929</v>
+        <v>1.026778088910315</v>
       </c>
       <c r="D20">
-        <v>1.010763011282516</v>
+        <v>1.023829745906674</v>
       </c>
       <c r="E20">
-        <v>0.9215358398098868</v>
+        <v>1.035266056715309</v>
       </c>
       <c r="F20">
-        <v>0.9180287347823025</v>
+        <v>1.042663689154085</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04342441819727</v>
+        <v>1.027781570346447</v>
       </c>
       <c r="J20">
-        <v>0.9307313770056441</v>
+        <v>1.033036937450378</v>
       </c>
       <c r="K20">
-        <v>1.024619209928012</v>
+        <v>1.027246360539083</v>
       </c>
       <c r="L20">
-        <v>0.9371145617617148</v>
+        <v>1.038642163243583</v>
       </c>
       <c r="M20">
-        <v>0.9336842615670922</v>
+        <v>1.046014113847933</v>
       </c>
       <c r="N20">
-        <v>0.9768040039104225</v>
+        <v>1.014413762527972</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8807265736020999</v>
+        <v>1.024363253327552</v>
       </c>
       <c r="D21">
-        <v>1.005824523177326</v>
+        <v>1.023193381061207</v>
       </c>
       <c r="E21">
-        <v>0.9057407197589104</v>
+        <v>1.03305566662043</v>
       </c>
       <c r="F21">
-        <v>0.9007451206861358</v>
+        <v>1.040221449297817</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041410666287967</v>
+        <v>1.027664993056494</v>
       </c>
       <c r="J21">
-        <v>0.9162215964727223</v>
+        <v>1.03103395356437</v>
       </c>
       <c r="K21">
-        <v>1.020696382049999</v>
+        <v>1.026821841561942</v>
       </c>
       <c r="L21">
-        <v>0.9227586684903754</v>
+        <v>1.036646796958579</v>
       </c>
       <c r="M21">
-        <v>0.9178870706121631</v>
+        <v>1.043785947385488</v>
       </c>
       <c r="N21">
-        <v>0.9714310934524547</v>
+        <v>1.01369533448756</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8684672939090643</v>
+        <v>1.022838626403462</v>
       </c>
       <c r="D22">
-        <v>1.002588185266324</v>
+        <v>1.022786227006253</v>
       </c>
       <c r="E22">
-        <v>0.894967274828626</v>
+        <v>1.031660192195374</v>
       </c>
       <c r="F22">
-        <v>0.8889542587254354</v>
+        <v>1.038680200795731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040069952889098</v>
+        <v>1.027586509990163</v>
       </c>
       <c r="J22">
-        <v>0.9063032408825072</v>
+        <v>1.029768393883549</v>
       </c>
       <c r="K22">
-        <v>1.018108543476332</v>
+        <v>1.026547147649343</v>
       </c>
       <c r="L22">
-        <v>0.912952217733066</v>
+        <v>1.035386161784353</v>
       </c>
       <c r="M22">
-        <v>0.9071009122119746</v>
+        <v>1.042378990933125</v>
       </c>
       <c r="N22">
-        <v>0.967765265441863</v>
+        <v>1.013240407459075</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8750727083741107</v>
+        <v>1.023647471882663</v>
       </c>
       <c r="D23">
-        <v>1.004316643407697</v>
+        <v>1.023002733729557</v>
       </c>
       <c r="E23">
-        <v>0.900768643858448</v>
+        <v>1.032400512166615</v>
       </c>
       <c r="F23">
-        <v>0.8953037939328521</v>
+        <v>1.039497799546493</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040787933939622</v>
+        <v>1.027628606217047</v>
       </c>
       <c r="J23">
-        <v>0.9116462759448937</v>
+        <v>1.030439889504659</v>
       </c>
       <c r="K23">
-        <v>1.019492227845273</v>
+        <v>1.026693504457307</v>
       </c>
       <c r="L23">
-        <v>0.9182342793467797</v>
+        <v>1.036055033862706</v>
       </c>
       <c r="M23">
-        <v>0.9129102582731305</v>
+        <v>1.043125427002243</v>
       </c>
       <c r="N23">
-        <v>0.969739239463748</v>
+        <v>1.013481881958444</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.89893097890454</v>
+        <v>1.026818469506129</v>
       </c>
       <c r="D24">
-        <v>1.01084365827519</v>
+        <v>1.023840294915895</v>
       </c>
       <c r="E24">
-        <v>0.9217883792982158</v>
+        <v>1.035303019744479</v>
       </c>
       <c r="F24">
-        <v>0.9183050578540897</v>
+        <v>1.042704539402101</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04345695171977</v>
+        <v>1.027783436694909</v>
       </c>
       <c r="J24">
-        <v>0.9309630485402194</v>
+        <v>1.033070414871011</v>
       </c>
       <c r="K24">
-        <v>1.024682986037218</v>
+        <v>1.027253345444726</v>
       </c>
       <c r="L24">
-        <v>0.9373438687776586</v>
+        <v>1.038675515205249</v>
       </c>
       <c r="M24">
-        <v>0.9339366722733298</v>
+        <v>1.046051369794693</v>
       </c>
       <c r="N24">
-        <v>0.9768898657472161</v>
+        <v>1.01442575323124</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9232517713609102</v>
+        <v>1.030471933579147</v>
       </c>
       <c r="D25">
-        <v>1.017880093725776</v>
+        <v>1.024781422877931</v>
       </c>
       <c r="E25">
-        <v>0.9433130748662576</v>
+        <v>1.03864741647204</v>
       </c>
       <c r="F25">
-        <v>0.9418578224267289</v>
+        <v>1.046402085227728</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046245438360855</v>
+        <v>1.027940447854658</v>
       </c>
       <c r="J25">
-        <v>0.9506700370390733</v>
+        <v>1.03609700809811</v>
       </c>
       <c r="K25">
-        <v>1.030207043163201</v>
+        <v>1.027868987877461</v>
       </c>
       <c r="L25">
-        <v>0.9568601134378952</v>
+        <v>1.041691023941352</v>
       </c>
       <c r="M25">
-        <v>0.9554311716717019</v>
+        <v>1.049421663745579</v>
       </c>
       <c r="N25">
-        <v>0.9841981867300598</v>
+        <v>1.015507385343153</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_241/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033366029227542</v>
+        <v>0.9406701231914563</v>
       </c>
       <c r="D2">
-        <v>1.025507051647275</v>
+        <v>1.023091368372433</v>
       </c>
       <c r="E2">
-        <v>1.041296853725589</v>
+        <v>0.9587835942880237</v>
       </c>
       <c r="F2">
-        <v>1.049333393264743</v>
+        <v>0.9587906776523054</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02804731065926</v>
+        <v>1.04823588693434</v>
       </c>
       <c r="J2">
-        <v>1.038491151223592</v>
+        <v>0.9647827423474211</v>
       </c>
       <c r="K2">
-        <v>1.028332420894444</v>
+        <v>1.034238110779699</v>
       </c>
       <c r="L2">
-        <v>1.044076768678686</v>
+        <v>0.9708486554631133</v>
       </c>
       <c r="M2">
-        <v>1.052090743175996</v>
+        <v>0.970855629014183</v>
       </c>
       <c r="N2">
-        <v>1.016359438818662</v>
+        <v>0.9894316961923433</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035456500123056</v>
+        <v>0.9524186050830666</v>
       </c>
       <c r="D3">
-        <v>1.026019325364455</v>
+        <v>1.026656736711927</v>
       </c>
       <c r="E3">
-        <v>1.043210675826196</v>
+        <v>0.9692419938083158</v>
       </c>
       <c r="F3">
-        <v>1.051452051245787</v>
+        <v>0.9702422685813336</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028114196249099</v>
+        <v>1.04955216868654</v>
       </c>
       <c r="J3">
-        <v>1.040218527726439</v>
+        <v>0.9742961429359163</v>
       </c>
       <c r="K3">
-        <v>1.028652813399939</v>
+        <v>1.036959532729952</v>
       </c>
       <c r="L3">
-        <v>1.045798295184488</v>
+        <v>0.9802841676473344</v>
       </c>
       <c r="M3">
-        <v>1.054018255724803</v>
+        <v>0.9812706174023297</v>
       </c>
       <c r="N3">
-        <v>1.016972109842518</v>
+        <v>0.9929555615789046</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036804338530668</v>
+        <v>0.9596667929265281</v>
       </c>
       <c r="D4">
-        <v>1.026344013162027</v>
+        <v>1.028866762049402</v>
       </c>
       <c r="E4">
-        <v>1.044444645201334</v>
+        <v>0.9757032499612407</v>
       </c>
       <c r="F4">
-        <v>1.052818661432289</v>
+        <v>0.9773197444983326</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028152502439901</v>
+        <v>1.050346101611162</v>
       </c>
       <c r="J4">
-        <v>1.041331346126495</v>
+        <v>0.9801616929219885</v>
       </c>
       <c r="K4">
-        <v>1.028852644648525</v>
+        <v>1.038628840114071</v>
       </c>
       <c r="L4">
-        <v>1.046907440178718</v>
+        <v>0.9861040388340165</v>
       </c>
       <c r="M4">
-        <v>1.055260824523872</v>
+        <v>0.9876998335070281</v>
       </c>
       <c r="N4">
-        <v>1.017365833892181</v>
+        <v>0.9951252939962184</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037369841693726</v>
+        <v>0.9626369232228107</v>
       </c>
       <c r="D5">
-        <v>1.026478881439717</v>
+        <v>1.029773185199953</v>
       </c>
       <c r="E5">
-        <v>1.044962378131683</v>
+        <v>0.9783528230347592</v>
       </c>
       <c r="F5">
-        <v>1.053392182731227</v>
+        <v>0.9802227022168325</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028167412619662</v>
+        <v>1.05066628811199</v>
       </c>
       <c r="J5">
-        <v>1.041798024285772</v>
+        <v>0.9825642106938949</v>
       </c>
       <c r="K5">
-        <v>1.028934856412294</v>
+        <v>1.039309142812778</v>
       </c>
       <c r="L5">
-        <v>1.047372600427122</v>
+        <v>0.9884883668270319</v>
       </c>
       <c r="M5">
-        <v>1.055782111355798</v>
+        <v>0.9903350710637401</v>
       </c>
       <c r="N5">
-        <v>1.017530713907021</v>
+        <v>0.9960131695381311</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03746472686782</v>
+        <v>0.9631313086352351</v>
       </c>
       <c r="D6">
-        <v>1.026501430639359</v>
+        <v>1.029924063371728</v>
       </c>
       <c r="E6">
-        <v>1.045049248248012</v>
+        <v>0.9787939566580469</v>
       </c>
       <c r="F6">
-        <v>1.053488421571141</v>
+        <v>0.9807060647623944</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028169846008701</v>
+        <v>1.050719259225547</v>
       </c>
       <c r="J6">
-        <v>1.04187631483863</v>
+        <v>0.982964050311198</v>
       </c>
       <c r="K6">
-        <v>1.028948554567338</v>
+        <v>1.039422122093371</v>
       </c>
       <c r="L6">
-        <v>1.047450637651736</v>
+        <v>0.9888852087019285</v>
       </c>
       <c r="M6">
-        <v>1.055869574615349</v>
+        <v>0.9907737489818043</v>
       </c>
       <c r="N6">
-        <v>1.01755836060787</v>
+        <v>0.9961608810379829</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036811899204402</v>
+        <v>0.9597067731935055</v>
       </c>
       <c r="D7">
-        <v>1.026345821692126</v>
+        <v>1.028878962103938</v>
       </c>
       <c r="E7">
-        <v>1.0444515671777</v>
+        <v>0.9757389080036764</v>
       </c>
       <c r="F7">
-        <v>1.052826328749198</v>
+        <v>0.9773588097804041</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028152706365016</v>
+        <v>1.050350433012133</v>
       </c>
       <c r="J7">
-        <v>1.0413375863911</v>
+        <v>0.9801940370030672</v>
       </c>
       <c r="K7">
-        <v>1.028853750235325</v>
+        <v>1.03863801414487</v>
       </c>
       <c r="L7">
-        <v>1.046913660057774</v>
+        <v>0.9861361360194605</v>
       </c>
       <c r="M7">
-        <v>1.055267794227486</v>
+        <v>0.9877353033046444</v>
       </c>
       <c r="N7">
-        <v>1.017368039536576</v>
+        <v>0.995137250611288</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034073532951003</v>
+        <v>0.9447188716536061</v>
       </c>
       <c r="D8">
-        <v>1.02568157912909</v>
+        <v>1.024316734034519</v>
       </c>
       <c r="E8">
-        <v>1.041944565930772</v>
+        <v>0.9623856726026715</v>
       </c>
       <c r="F8">
-        <v>1.050050311958026</v>
+        <v>0.9627343128094433</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02807094286734</v>
+        <v>1.04869285524892</v>
       </c>
       <c r="J8">
-        <v>1.039075957746021</v>
+        <v>0.9680619314356627</v>
       </c>
       <c r="K8">
-        <v>1.028442245416833</v>
+        <v>1.03517709359159</v>
       </c>
       <c r="L8">
-        <v>1.04465957474345</v>
+        <v>0.9741004678994141</v>
       </c>
       <c r="M8">
-        <v>1.052743136263629</v>
+        <v>0.974443906949625</v>
       </c>
       <c r="N8">
-        <v>1.016567061135038</v>
+        <v>0.9906468771821586</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029209801128964</v>
+        <v>0.9151748993590455</v>
       </c>
       <c r="D9">
-        <v>1.024459342914767</v>
+        <v>1.015507248178864</v>
       </c>
       <c r="E9">
-        <v>1.037492025308604</v>
+        <v>0.9361545166681813</v>
       </c>
       <c r="F9">
-        <v>1.045124365226372</v>
+        <v>0.934024338156872</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027888906352644</v>
+        <v>1.045316807020323</v>
       </c>
       <c r="J9">
-        <v>1.035051958522594</v>
+        <v>0.9441248047241561</v>
       </c>
       <c r="K9">
-        <v>1.027660033183786</v>
+        <v>1.028353643349236</v>
       </c>
       <c r="L9">
-        <v>1.040649743577527</v>
+        <v>0.950375971056559</v>
       </c>
       <c r="M9">
-        <v>1.048257462646569</v>
+        <v>0.9482869259773937</v>
       </c>
       <c r="N9">
-        <v>1.015134458890293</v>
+        <v>0.9817702740422684</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025939617291363</v>
+        <v>0.8926104190860673</v>
       </c>
       <c r="D10">
-        <v>1.023610008354521</v>
+        <v>1.009074118800369</v>
       </c>
       <c r="E10">
-        <v>1.034498556500015</v>
+        <v>0.9162101577309062</v>
       </c>
       <c r="F10">
-        <v>1.041815550827719</v>
+        <v>0.9122014266075996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027742192411911</v>
+        <v>1.042740418255062</v>
       </c>
       <c r="J10">
-        <v>1.032341682945349</v>
+        <v>0.9258434061875622</v>
       </c>
       <c r="K10">
-        <v>1.027100466945094</v>
+        <v>1.023281447481232</v>
       </c>
       <c r="L10">
-        <v>1.037949528146233</v>
+        <v>0.9322771519359977</v>
       </c>
       <c r="M10">
-        <v>1.045240498997322</v>
+        <v>0.9283601017877232</v>
       </c>
       <c r="N10">
-        <v>1.014164613834184</v>
+        <v>0.9749929109167155</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024516597594767</v>
+        <v>0.8819158412008378</v>
       </c>
       <c r="D11">
-        <v>1.02323410637176</v>
+        <v>1.006144924351871</v>
       </c>
       <c r="E11">
-        <v>1.033196024245224</v>
+        <v>0.9067873154486269</v>
       </c>
       <c r="F11">
-        <v>1.040376494231811</v>
+        <v>0.9018904358710484</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027672681232815</v>
+        <v>1.041542536238143</v>
       </c>
       <c r="J11">
-        <v>1.031161200832587</v>
+        <v>0.9171842076014286</v>
       </c>
       <c r="K11">
-        <v>1.026849189472056</v>
+        <v>1.02095187941545</v>
       </c>
       <c r="L11">
-        <v>1.036773553826061</v>
+        <v>0.9237107128586052</v>
       </c>
       <c r="M11">
-        <v>1.043927448861385</v>
+        <v>0.9189344155542699</v>
       </c>
       <c r="N11">
-        <v>1.013741033680938</v>
+        <v>0.9717872094098989</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023986934918851</v>
+        <v>0.8777755549434743</v>
       </c>
       <c r="D12">
-        <v>1.023093261465912</v>
+        <v>1.005034294761869</v>
       </c>
       <c r="E12">
-        <v>1.032711220915079</v>
+        <v>0.9031448295958914</v>
       </c>
       <c r="F12">
-        <v>1.039840979805725</v>
+        <v>0.8979042947929057</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027645965106361</v>
+        <v>1.041084745136768</v>
       </c>
       <c r="J12">
-        <v>1.030721647574989</v>
+        <v>0.9138333077145441</v>
       </c>
       <c r="K12">
-        <v>1.026754508480939</v>
+        <v>1.020065677037083</v>
       </c>
       <c r="L12">
-        <v>1.036335698255753</v>
+        <v>0.9203968193082218</v>
       </c>
       <c r="M12">
-        <v>1.043438686032643</v>
+        <v>0.9152889499180734</v>
       </c>
       <c r="N12">
-        <v>1.013583141053325</v>
+        <v>0.9705477918726501</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024100599274606</v>
+        <v>0.878671825118324</v>
       </c>
       <c r="D13">
-        <v>1.02312352824074</v>
+        <v>1.0052735685791</v>
       </c>
       <c r="E13">
-        <v>1.032815257965506</v>
+        <v>0.9039330742134716</v>
       </c>
       <c r="F13">
-        <v>1.039955894605354</v>
+        <v>0.8987669269977018</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027651736342748</v>
+        <v>1.041183532369324</v>
       </c>
       <c r="J13">
-        <v>1.030815982143403</v>
+        <v>0.9145586201279338</v>
       </c>
       <c r="K13">
-        <v>1.02677487869296</v>
+        <v>1.020256731067004</v>
       </c>
       <c r="L13">
-        <v>1.036429667602273</v>
+        <v>0.9211140684616007</v>
       </c>
       <c r="M13">
-        <v>1.043543574808476</v>
+        <v>0.9160779278678314</v>
       </c>
       <c r="N13">
-        <v>1.013617034894785</v>
+        <v>0.9708160094506496</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024472837959735</v>
+        <v>0.8815772292666418</v>
       </c>
       <c r="D14">
-        <v>1.023222488916466</v>
+        <v>1.006053586573631</v>
       </c>
       <c r="E14">
-        <v>1.033155970530062</v>
+        <v>0.9064892995739275</v>
       </c>
       <c r="F14">
-        <v>1.040332248738053</v>
+        <v>0.9015643116167845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027670491146611</v>
+        <v>1.041504960057254</v>
       </c>
       <c r="J14">
-        <v>1.031124889223288</v>
+        <v>0.9169101229006718</v>
       </c>
       <c r="K14">
-        <v>1.026841390534216</v>
+        <v>1.020879057303194</v>
       </c>
       <c r="L14">
-        <v>1.036737382070019</v>
+        <v>0.9234396315964327</v>
       </c>
       <c r="M14">
-        <v>1.043887068933161</v>
+        <v>0.9186361951214299</v>
       </c>
       <c r="N14">
-        <v>1.013727993633358</v>
+        <v>0.9716858068204447</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024702040976964</v>
+        <v>0.8833440775647812</v>
       </c>
       <c r="D15">
-        <v>1.023283300548361</v>
+        <v>1.00653115496801</v>
       </c>
       <c r="E15">
-        <v>1.033365763308621</v>
+        <v>0.9080445473252724</v>
       </c>
       <c r="F15">
-        <v>1.040564001381583</v>
+        <v>0.9032662328231837</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027681927861248</v>
+        <v>1.04170128505091</v>
       </c>
       <c r="J15">
-        <v>1.031315074403884</v>
+        <v>0.918340334406852</v>
       </c>
       <c r="K15">
-        <v>1.026882192518696</v>
+        <v>1.021259696371353</v>
       </c>
       <c r="L15">
-        <v>1.036926835544606</v>
+        <v>0.9248542165661253</v>
       </c>
       <c r="M15">
-        <v>1.044098568512557</v>
+        <v>0.9201924332920101</v>
       </c>
       <c r="N15">
-        <v>1.013796284965319</v>
+        <v>0.97221498700168</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02603390762909</v>
+        <v>0.8932984378344815</v>
       </c>
       <c r="D16">
-        <v>1.023634784689579</v>
+        <v>1.009265409203061</v>
       </c>
       <c r="E16">
-        <v>1.034584864946816</v>
+        <v>0.9168170417698941</v>
       </c>
       <c r="F16">
-        <v>1.041910920141611</v>
+        <v>0.9128654815013666</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027746679784027</v>
+        <v>1.042818143987246</v>
       </c>
       <c r="J16">
-        <v>1.032419879352862</v>
+        <v>0.9264006371870872</v>
       </c>
       <c r="K16">
-        <v>1.02711695452225</v>
+        <v>1.023433172621417</v>
       </c>
       <c r="L16">
-        <v>1.038027428624988</v>
+        <v>0.9328285538583375</v>
       </c>
       <c r="M16">
-        <v>1.04532749814416</v>
+        <v>0.9289669270623222</v>
       </c>
       <c r="N16">
-        <v>1.014192648055195</v>
+        <v>0.9751993268199132</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02686745018941</v>
+        <v>0.8992773124888894</v>
       </c>
       <c r="D17">
-        <v>1.023853086440131</v>
+        <v>1.01094139622666</v>
       </c>
       <c r="E17">
-        <v>1.035347855050772</v>
+        <v>0.9220942304035652</v>
       </c>
       <c r="F17">
-        <v>1.042754090270336</v>
+        <v>0.9186397130791977</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027785696793537</v>
+        <v>1.043496363820946</v>
       </c>
       <c r="J17">
-        <v>1.03311102144153</v>
+        <v>0.931243612712083</v>
       </c>
       <c r="K17">
-        <v>1.027261812832631</v>
+        <v>1.024760264815615</v>
       </c>
       <c r="L17">
-        <v>1.038715969682559</v>
+        <v>0.9376215732635735</v>
       </c>
       <c r="M17">
-        <v>1.046096560209594</v>
+        <v>0.9342423605235711</v>
       </c>
       <c r="N17">
-        <v>1.014440296640642</v>
+        <v>0.9769938506536487</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027352967761147</v>
+        <v>0.9026778829155595</v>
       </c>
       <c r="D18">
-        <v>1.02397963304905</v>
+        <v>1.01190518914984</v>
       </c>
       <c r="E18">
-        <v>1.035792284708298</v>
+        <v>0.9250983657589542</v>
       </c>
       <c r="F18">
-        <v>1.043245289960371</v>
+        <v>0.9219267607558134</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027807877329898</v>
+        <v>1.043884053311239</v>
       </c>
       <c r="J18">
-        <v>1.033513487843186</v>
+        <v>0.9339985713914329</v>
       </c>
       <c r="K18">
-        <v>1.027345439387843</v>
+        <v>1.025521539750437</v>
       </c>
       <c r="L18">
-        <v>1.039116933547572</v>
+        <v>0.9403486750473913</v>
       </c>
       <c r="M18">
-        <v>1.046544498368184</v>
+        <v>0.9372444943333256</v>
       </c>
       <c r="N18">
-        <v>1.014584396272636</v>
+        <v>0.9780150546377693</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027518403541067</v>
+        <v>0.9038234088435781</v>
       </c>
       <c r="D19">
-        <v>1.024022648879112</v>
+        <v>1.012231509405157</v>
       </c>
       <c r="E19">
-        <v>1.035943721312831</v>
+        <v>0.9261107746976166</v>
       </c>
       <c r="F19">
-        <v>1.043412674438442</v>
+        <v>0.9230345120150575</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027815342305293</v>
+        <v>1.044014918495121</v>
       </c>
       <c r="J19">
-        <v>1.033650606598615</v>
+        <v>0.9349266757720869</v>
       </c>
       <c r="K19">
-        <v>1.027373806722036</v>
+        <v>1.025778969664446</v>
       </c>
       <c r="L19">
-        <v>1.039253542438254</v>
+        <v>0.94126748590909</v>
       </c>
       <c r="M19">
-        <v>1.04669712568265</v>
+        <v>0.9382560638659387</v>
       </c>
       <c r="N19">
-        <v>1.014633471543508</v>
+        <v>0.9783591359048142</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026778088910315</v>
+        <v>0.8986449962393915</v>
       </c>
       <c r="D20">
-        <v>1.023829745906674</v>
+        <v>1.010763011282516</v>
       </c>
       <c r="E20">
-        <v>1.035266056715309</v>
+        <v>0.9215358398098855</v>
       </c>
       <c r="F20">
-        <v>1.042663689154085</v>
+        <v>0.9180287347823006</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027781570346447</v>
+        <v>1.04342441819727</v>
       </c>
       <c r="J20">
-        <v>1.033036937450378</v>
+        <v>0.9307313770056428</v>
       </c>
       <c r="K20">
-        <v>1.027246360539083</v>
+        <v>1.024619209928012</v>
       </c>
       <c r="L20">
-        <v>1.038642163243583</v>
+        <v>0.9371145617617133</v>
       </c>
       <c r="M20">
-        <v>1.046014113847933</v>
+        <v>0.9336842615670902</v>
       </c>
       <c r="N20">
-        <v>1.014413762527972</v>
+        <v>0.9768040039104221</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024363253327552</v>
+        <v>0.8807265736021005</v>
       </c>
       <c r="D21">
-        <v>1.023193381061207</v>
+        <v>1.005824523177327</v>
       </c>
       <c r="E21">
-        <v>1.03305566662043</v>
+        <v>0.9057407197589111</v>
       </c>
       <c r="F21">
-        <v>1.040221449297817</v>
+        <v>0.9007451206861368</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027664993056494</v>
+        <v>1.041410666287968</v>
       </c>
       <c r="J21">
-        <v>1.03103395356437</v>
+        <v>0.9162215964727228</v>
       </c>
       <c r="K21">
-        <v>1.026821841561942</v>
+        <v>1.020696382049999</v>
       </c>
       <c r="L21">
-        <v>1.036646796958579</v>
+        <v>0.9227586684903758</v>
       </c>
       <c r="M21">
-        <v>1.043785947385488</v>
+        <v>0.9178870706121638</v>
       </c>
       <c r="N21">
-        <v>1.01369533448756</v>
+        <v>0.9714310934524549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022838626403462</v>
+        <v>0.8684672939090626</v>
       </c>
       <c r="D22">
-        <v>1.022786227006253</v>
+        <v>1.002588185266324</v>
       </c>
       <c r="E22">
-        <v>1.031660192195374</v>
+        <v>0.8949672748286247</v>
       </c>
       <c r="F22">
-        <v>1.038680200795731</v>
+        <v>0.8889542587254339</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027586509990163</v>
+        <v>1.040069952889099</v>
       </c>
       <c r="J22">
-        <v>1.029768393883549</v>
+        <v>0.9063032408825058</v>
       </c>
       <c r="K22">
-        <v>1.026547147649343</v>
+        <v>1.018108543476333</v>
       </c>
       <c r="L22">
-        <v>1.035386161784353</v>
+        <v>0.9129522177330645</v>
       </c>
       <c r="M22">
-        <v>1.042378990933125</v>
+        <v>0.9071009122119731</v>
       </c>
       <c r="N22">
-        <v>1.013240407459075</v>
+        <v>0.9677652654418624</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023647471882663</v>
+        <v>0.8750727083741099</v>
       </c>
       <c r="D23">
-        <v>1.023002733729557</v>
+        <v>1.004316643407697</v>
       </c>
       <c r="E23">
-        <v>1.032400512166615</v>
+        <v>0.9007686438584472</v>
       </c>
       <c r="F23">
-        <v>1.039497799546493</v>
+        <v>0.8953037939328511</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027628606217047</v>
+        <v>1.040787933939622</v>
       </c>
       <c r="J23">
-        <v>1.030439889504659</v>
+        <v>0.9116462759448932</v>
       </c>
       <c r="K23">
-        <v>1.026693504457307</v>
+        <v>1.019492227845273</v>
       </c>
       <c r="L23">
-        <v>1.036055033862706</v>
+        <v>0.9182342793467789</v>
       </c>
       <c r="M23">
-        <v>1.043125427002243</v>
+        <v>0.9129102582731295</v>
       </c>
       <c r="N23">
-        <v>1.013481881958444</v>
+        <v>0.9697392394637476</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026818469506129</v>
+        <v>0.898930978904537</v>
       </c>
       <c r="D24">
-        <v>1.023840294915895</v>
+        <v>1.01084365827519</v>
       </c>
       <c r="E24">
-        <v>1.035303019744479</v>
+        <v>0.921788379298213</v>
       </c>
       <c r="F24">
-        <v>1.042704539402101</v>
+        <v>0.9183050578540867</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027783436694909</v>
+        <v>1.043456951719771</v>
       </c>
       <c r="J24">
-        <v>1.033070414871011</v>
+        <v>0.9309630485402164</v>
       </c>
       <c r="K24">
-        <v>1.027253345444726</v>
+        <v>1.024682986037218</v>
       </c>
       <c r="L24">
-        <v>1.038675515205249</v>
+        <v>0.9373438687776559</v>
       </c>
       <c r="M24">
-        <v>1.046051369794693</v>
+        <v>0.9339366722733268</v>
       </c>
       <c r="N24">
-        <v>1.01442575323124</v>
+        <v>0.976889865747215</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030471933579147</v>
+        <v>0.9232517713609103</v>
       </c>
       <c r="D25">
-        <v>1.024781422877931</v>
+        <v>1.017880093725775</v>
       </c>
       <c r="E25">
-        <v>1.03864741647204</v>
+        <v>0.9433130748662576</v>
       </c>
       <c r="F25">
-        <v>1.046402085227728</v>
+        <v>0.9418578224267292</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027940447854658</v>
+        <v>1.046245438360855</v>
       </c>
       <c r="J25">
-        <v>1.03609700809811</v>
+        <v>0.9506700370390733</v>
       </c>
       <c r="K25">
-        <v>1.027868987877461</v>
+        <v>1.030207043163201</v>
       </c>
       <c r="L25">
-        <v>1.041691023941352</v>
+        <v>0.9568601134378953</v>
       </c>
       <c r="M25">
-        <v>1.049421663745579</v>
+        <v>0.955431171671702</v>
       </c>
       <c r="N25">
-        <v>1.015507385343153</v>
+        <v>0.9841981867300597</v>
       </c>
     </row>
   </sheetData>
